--- a/po_analysis_by_asin/B0CHSJ32YF_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSJ32YF_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,145 +452,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45474</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45481</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45488</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>374</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45495</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45502</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45509</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45530</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>260</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45544</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45551</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45558</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B19" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>12</v>
       </c>
     </row>
@@ -605,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,49 +643,57 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>518</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>270</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>92</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CHSJ32YF_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSJ32YF_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -637,7 +638,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,439 @@
       </c>
       <c r="B8" t="n">
         <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-102.6145297035914</v>
+      </c>
+      <c r="D2" t="n">
+        <v>118.6829139844437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-92.65511391561714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>126.7704507656066</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-90.10245372620062</v>
+      </c>
+      <c r="D4" t="n">
+        <v>129.302405779324</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-93.52801680126804</v>
+      </c>
+      <c r="D5" t="n">
+        <v>131.4941073212467</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-90.64557246527514</v>
+      </c>
+      <c r="D6" t="n">
+        <v>135.5858456187621</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-82.70881764019514</v>
+      </c>
+      <c r="D7" t="n">
+        <v>136.3432411091244</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-84.20348622639499</v>
+      </c>
+      <c r="D8" t="n">
+        <v>139.0586142773058</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-84.54061856704878</v>
+      </c>
+      <c r="D9" t="n">
+        <v>148.4497314590374</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-68.87280158141658</v>
+      </c>
+      <c r="D10" t="n">
+        <v>144.4285968584393</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-49.93515701888379</v>
+      </c>
+      <c r="D11" t="n">
+        <v>176.7322697776829</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>71</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-41.94081734893326</v>
+      </c>
+      <c r="D12" t="n">
+        <v>181.932212483116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-28.76543820386568</v>
+      </c>
+      <c r="D13" t="n">
+        <v>183.4774788499101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-33.57188634716378</v>
+      </c>
+      <c r="D14" t="n">
+        <v>187.0991423133664</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-38.13670110706391</v>
+      </c>
+      <c r="D15" t="n">
+        <v>196.2190940554407</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-34.06424359297373</v>
+      </c>
+      <c r="D16" t="n">
+        <v>190.0909097921583</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>81</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-36.42954020796371</v>
+      </c>
+      <c r="D17" t="n">
+        <v>195.2981584848851</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>86</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-24.11316042298433</v>
+      </c>
+      <c r="D18" t="n">
+        <v>196.0354681330795</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-16.21150365403111</v>
+      </c>
+      <c r="D19" t="n">
+        <v>199.9213304685917</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>92</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-15.95444174471232</v>
+      </c>
+      <c r="D20" t="n">
+        <v>207.0144095274597</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>94</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-18.35919309491492</v>
+      </c>
+      <c r="D21" t="n">
+        <v>199.1763487255095</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>96</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-20.52906580375431</v>
+      </c>
+      <c r="D22" t="n">
+        <v>203.6118750485004</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>98</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-19.95508502340115</v>
+      </c>
+      <c r="D23" t="n">
+        <v>208.3904539401801</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-9.096405516355901</v>
+      </c>
+      <c r="D24" t="n">
+        <v>206.8777568081636</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>102</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-7.855574086389268</v>
+      </c>
+      <c r="D25" t="n">
+        <v>216.4991517706714</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>103</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-11.43191115816521</v>
+      </c>
+      <c r="D26" t="n">
+        <v>215.5479540428815</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>105</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.392208153196185</v>
+      </c>
+      <c r="D27" t="n">
+        <v>222.5051110980764</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>107</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-6.712476934202124</v>
+      </c>
+      <c r="D28" t="n">
+        <v>220.6436398964288</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>109</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.720045149752456</v>
+      </c>
+      <c r="D29" t="n">
+        <v>210.6541863673449</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CHSJ32YF_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSJ32YF_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>-102.6145297035914</v>
-      </c>
-      <c r="D2" t="n">
-        <v>118.6829139844437</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>-92.65511391561714</v>
-      </c>
-      <c r="D3" t="n">
-        <v>126.7704507656066</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>21</v>
       </c>
-      <c r="C4" t="n">
-        <v>-90.10245372620062</v>
-      </c>
-      <c r="D4" t="n">
-        <v>129.302405779324</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>23</v>
       </c>
-      <c r="C5" t="n">
-        <v>-93.52801680126804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>131.4941073212467</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
-        <v>-90.64557246527514</v>
-      </c>
-      <c r="D6" t="n">
-        <v>135.5858456187621</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>27</v>
       </c>
-      <c r="C7" t="n">
-        <v>-82.70881764019514</v>
-      </c>
-      <c r="D7" t="n">
-        <v>136.3432411091244</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>29</v>
       </c>
-      <c r="C8" t="n">
-        <v>-84.20348622639499</v>
-      </c>
-      <c r="D8" t="n">
-        <v>139.0586142773058</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>31</v>
       </c>
-      <c r="C9" t="n">
-        <v>-84.54061856704878</v>
-      </c>
-      <c r="D9" t="n">
-        <v>148.4497314590374</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>37</v>
       </c>
-      <c r="C10" t="n">
-        <v>-68.87280158141658</v>
-      </c>
-      <c r="D10" t="n">
-        <v>144.4285968584393</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>60</v>
       </c>
-      <c r="C11" t="n">
-        <v>-49.93515701888379</v>
-      </c>
-      <c r="D11" t="n">
-        <v>176.7322697776829</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>71</v>
       </c>
-      <c r="C12" t="n">
-        <v>-41.94081734893326</v>
-      </c>
-      <c r="D12" t="n">
-        <v>181.932212483116</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>73</v>
       </c>
-      <c r="C13" t="n">
-        <v>-28.76543820386568</v>
-      </c>
-      <c r="D13" t="n">
-        <v>183.4774788499101</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
-        <v>-33.57188634716378</v>
-      </c>
-      <c r="D14" t="n">
-        <v>187.0991423133664</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>77</v>
       </c>
-      <c r="C15" t="n">
-        <v>-38.13670110706391</v>
-      </c>
-      <c r="D15" t="n">
-        <v>196.2190940554407</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>79</v>
       </c>
-      <c r="C16" t="n">
-        <v>-34.06424359297373</v>
-      </c>
-      <c r="D16" t="n">
-        <v>190.0909097921583</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>81</v>
       </c>
-      <c r="C17" t="n">
-        <v>-36.42954020796371</v>
-      </c>
-      <c r="D17" t="n">
-        <v>195.2981584848851</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>86</v>
       </c>
-      <c r="C18" t="n">
-        <v>-24.11316042298433</v>
-      </c>
-      <c r="D18" t="n">
-        <v>196.0354681330795</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>90</v>
       </c>
-      <c r="C19" t="n">
-        <v>-16.21150365403111</v>
-      </c>
-      <c r="D19" t="n">
-        <v>199.9213304685917</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>92</v>
       </c>
-      <c r="C20" t="n">
-        <v>-15.95444174471232</v>
-      </c>
-      <c r="D20" t="n">
-        <v>207.0144095274597</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>94</v>
       </c>
-      <c r="C21" t="n">
-        <v>-18.35919309491492</v>
-      </c>
-      <c r="D21" t="n">
-        <v>199.1763487255095</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>96</v>
       </c>
-      <c r="C22" t="n">
-        <v>-20.52906580375431</v>
-      </c>
-      <c r="D22" t="n">
-        <v>203.6118750485004</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>98</v>
       </c>
-      <c r="C23" t="n">
-        <v>-19.95508502340115</v>
-      </c>
-      <c r="D23" t="n">
-        <v>208.3904539401801</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>100</v>
       </c>
-      <c r="C24" t="n">
-        <v>-9.096405516355901</v>
-      </c>
-      <c r="D24" t="n">
-        <v>206.8777568081636</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>102</v>
       </c>
-      <c r="C25" t="n">
-        <v>-7.855574086389268</v>
-      </c>
-      <c r="D25" t="n">
-        <v>216.4991517706714</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>103</v>
       </c>
-      <c r="C26" t="n">
-        <v>-11.43191115816521</v>
-      </c>
-      <c r="D26" t="n">
-        <v>215.5479540428815</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1096,12 +936,6 @@
       <c r="B27" t="n">
         <v>105</v>
       </c>
-      <c r="C27" t="n">
-        <v>-3.392208153196185</v>
-      </c>
-      <c r="D27" t="n">
-        <v>222.5051110980764</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1110,12 +944,6 @@
       <c r="B28" t="n">
         <v>107</v>
       </c>
-      <c r="C28" t="n">
-        <v>-6.712476934202124</v>
-      </c>
-      <c r="D28" t="n">
-        <v>220.6436398964288</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1123,12 +951,6 @@
       </c>
       <c r="B29" t="n">
         <v>109</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-2.720045149752456</v>
-      </c>
-      <c r="D29" t="n">
-        <v>210.6541863673449</v>
       </c>
     </row>
   </sheetData>
